--- a/biology/Botanique/Aureoboletus_gentilis/Aureoboletus_gentilis.xlsx
+++ b/biology/Botanique/Aureoboletus_gentilis/Aureoboletus_gentilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet cramoisi
 Aureoboletus gentilis, le Bolet cramoisi, est une espèce de champignon (Fungi) basidiomycète du genre Aureoboletus dans la famille des Boletaceae. Il est caractérisé par  son chapeau rosâtre, ses pores jaune d'or et la saveur salée de sa cuticule.
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Aureoboletus gentilis (Quél.) Pouzar[1]. 
-Le basionyme de ce taxon est : Boletus sanguineus var. gentilis Quél.[1]
-Synonymes
-Aureoboletus gentilis a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Aureoboletus gentilis (Quél.) Pouzar. 
+Le basionyme de ce taxon est : Boletus sanguineus var. gentilis Quél.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aureoboletus_gentilis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aureoboletus_gentilis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aureoboletus gentilis a pour synonymes :
 Aureoboletus cramesinus Secr.
 Aureoboletus cramesinus Secr. ex Watling
 Boletus auriporus Kall.
@@ -541,47 +590,154 @@
 Xerocomus cramesinus Secr.
 Xerocomus cramesinus Secr. ex E.-J.Gilbert, 1931
 Xerocomus gentilis (Quél.) Singer
-Phylogénie
-Décrit à l'origine comme Boletus sanguineus var. gentilis par le mycologue français Lucien Quélet en 1884, l'espèce a été transférée dans le genre Aureoboletus par Zdeněk Pouzar en 1957.
-Noms vulgaires et vernaculaires
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : bolet cramoisi[2].
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Aureoboletus_gentilis</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Aureoboletus_gentilis</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit à l'origine comme Boletus sanguineus var. gentilis par le mycologue français Lucien Quélet en 1884, l'espèce a été transférée dans le genre Aureoboletus par Zdeněk Pouzar en 1957.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aureoboletus_gentilis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aureoboletus_gentilis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français le nom vernaculaire ou normalisé suivant : bolet cramoisi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aureoboletus_gentilis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aureoboletus_gentilis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Aureoboletus gentilis, le Bolet cramoisi, sont les suivantes :
-Son chapeau mesure de 2 à 5 cm, il est visqueux par temps humide, typiquement brun-rose, mais aussi crème rosâtre et même blanchâtre[3].
-L'hyménophore présente des tubes jaune vif, avec des pores assez amples, jaune d'or vif[3].
-Son stipe mesure 3 à 7 cm x 0,4 à 1,5 cm, de couleur jaune pâle ou jaune vif, puis envahi de roussâtre, sa base est souvent un peu effilée[3].
-La chair est blanche dans le chapeau et le haut du pied, rouge sous la cuticule et jaune dans le bas du pied. La saveur est douce dans la chair et salée sur la viscosité du chapeau, une caractéristique d'identification importante. Son odeur est faible mais agréable, un peu fruitée[3].
-Caractéristiques microscopiques
-Ses spores mesurent 11 à 16 μm x 4 à 6 μm, elles sont elliptiques-fusoïdes[3].
+Son chapeau mesure de 2 à 5 cm, il est visqueux par temps humide, typiquement brun-rose, mais aussi crème rosâtre et même blanchâtre.
+L'hyménophore présente des tubes jaune vif, avec des pores assez amples, jaune d'or vif.
+Son stipe mesure 3 à 7 cm x 0,4 à 1,5 cm, de couleur jaune pâle ou jaune vif, puis envahi de roussâtre, sa base est souvent un peu effilée.
+La chair est blanche dans le chapeau et le haut du pied, rouge sous la cuticule et jaune dans le bas du pied. La saveur est douce dans la chair et salée sur la viscosité du chapeau, une caractéristique d'identification importante. Son odeur est faible mais agréable, un peu fruitée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aureoboletus_gentilis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aureoboletus_gentilis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 11 à 16 μm x 4 à 6 μm, elles sont elliptiques-fusoïdes.
 </t>
         </is>
       </c>
